--- a/biology/Botanique/Acacia_koa/Acacia_koa.xlsx
+++ b/biology/Botanique/Acacia_koa/Acacia_koa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le koa (Acacia koa) est une espèce de plantes à fleurs de la famille des Mimosaceae, ou des Fabaceae selon la classification phylogénétique. C'est un grand arbre endémique des îles Hawaii. Les anciens Hawaïens construisaient des pirogues d'une seule pièce à partir d'un tronc creusé.
 L'arbre présente la particularité (typique de la plupart des Acacia d'Australie et des îles de l'Océan Pacifique) de produire lorsqu'il est jeune des feuilles composées caractéristiques de la famille des Fabaceae. L'adulte en revanche porte ce qui ressemble à des feuilles parfaitement simples en forme de lames de faucilles. Ce sont des phyllodes qui sont en fait des pétioles transformés.
